--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_15.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_15.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Selected Financial Information</t>
   </si>
@@ -1286,7 +1286,7 @@
         <v>30000000</v>
       </c>
       <c r="D15" s="1">
-        <v>30000000</v>
+        <v>300000000</v>
       </c>
       <c r="E15" s="1">
         <v>30000000</v>
@@ -1322,7 +1322,7 @@
         <v>-51786608.799999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-50601311.960000001</v>
+        <v>-506013111.95999998</v>
       </c>
       <c r="E16" s="1">
         <v>-60473972.810000002</v>
@@ -1395,7 +1395,8 @@
         <v>1515501799.8700008</v>
       </c>
       <c r="D18" s="1">
-        <v>1447283759</v>
+        <f>SUM(D12:D17)</f>
+        <v>1261871959.0400002</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E12:E17)</f>
@@ -1435,7 +1436,9 @@
       <c r="C19" s="1">
         <v>-392700000.00000024</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>-383100000</v>
+      </c>
       <c r="E19" s="1">
         <v>-384700000.00000012</v>
       </c>
@@ -1506,7 +1509,10 @@
         <f>SUM(C18:C20)</f>
         <v>1124090364.1500006</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="33">
+        <f>SUM(D18:D20)</f>
+        <v>911513374.2900002</v>
+      </c>
       <c r="E21" s="33">
         <f>SUM(E18:E20)</f>
         <v>1062434855.7700001</v>
@@ -1545,7 +1551,9 @@
       <c r="C22" s="32">
         <v>-33376095</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="32">
+        <v>-32201025</v>
+      </c>
       <c r="E22" s="32">
         <v>-20015625</v>
       </c>
@@ -1582,7 +1590,7 @@
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
-        <v>0</v>
+        <v>879312349.2900002</v>
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
@@ -1628,9 +1636,9 @@
         <f>C23/C26</f>
         <v>1.0870526184326699</v>
       </c>
-      <c r="D25" s="5" t="e">
+      <c r="D25" s="5">
         <f>D23/D26</f>
-        <v>#VALUE!</v>
+        <v>0.87061334615178732</v>
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
@@ -1668,8 +1676,8 @@
       <c r="C26" s="1">
         <v>1003368420.8613656</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
+      <c r="D26" s="1">
+        <v>1009991810</v>
       </c>
       <c r="E26" s="1">
         <v>1018613403.9980445</v>
@@ -1719,13 +1727,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="16" t="e">
+      <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="16" t="e">
+        <v>-0.199106527697756</v>
+      </c>
+      <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>#VALUE!</v>
+        <v>0.17545960080825287</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
@@ -1755,9 +1763,9 @@
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="e">
+      <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>#VALUE!</v>
+        <v>0.9832661839830964</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
